--- a/documents/permissions.xlsx
+++ b/documents/permissions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Business/Documents/OpenClassRooms/R12-Repo/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D606B950-3294-6E44-8DFA-4D3A28E429A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8992D6EA-4789-8D4D-B644-BF5F04D594F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="32000" windowHeight="17540" xr2:uid="{49A6C758-DD7F-5C46-A7F1-3D64CF893183}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="36">
   <si>
     <t>View</t>
   </si>
@@ -79,13 +79,67 @@
   </si>
   <si>
     <t>get</t>
+  </si>
+  <si>
+    <t>route</t>
+  </si>
+  <si>
+    <t>DeleteUserView</t>
+  </si>
+  <si>
+    <t>users/login/</t>
+  </si>
+  <si>
+    <t>users/logout/</t>
+  </si>
+  <si>
+    <t>users/signup/</t>
+  </si>
+  <si>
+    <t>users/&lt;int:user_id&gt;/</t>
+  </si>
+  <si>
+    <t>contacts/</t>
+  </si>
+  <si>
+    <t>ContactView</t>
+  </si>
+  <si>
+    <t>contacts/&lt;int:contact_id&gt;/</t>
+  </si>
+  <si>
+    <t>put</t>
+  </si>
+  <si>
+    <t>delete</t>
+  </si>
+  <si>
+    <t>SALES Contact or ADMIN</t>
+  </si>
+  <si>
+    <t>ADMIN</t>
+  </si>
+  <si>
+    <t>contracts_views</t>
+  </si>
+  <si>
+    <t>GlobalContractsView</t>
+  </si>
+  <si>
+    <t>contacts/contracts/</t>
+  </si>
+  <si>
+    <t>contacts/&lt;int:contact_id&gt;/contracts/</t>
+  </si>
+  <si>
+    <t>Sales Contact or ADMIN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -93,8 +147,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Courier"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -113,6 +173,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE1F3FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -126,7 +192,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -135,6 +201,33 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -145,6 +238,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFE1F3FF"/>
       <color rgb="FFFFDCC2"/>
       <color rgb="FFFDDDD6"/>
     </mruColors>
@@ -457,111 +551,248 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{040CC14E-0E78-EC42-8860-007467D2C9CA}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.83203125" style="1"/>
-    <col min="4" max="4" width="23.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="1"/>
+    <col min="4" max="4" width="44.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+      <c r="F3" s="6"/>
+    </row>
+    <row r="4" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B6" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C6" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D6" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="F6" s="8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+    <row r="7" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B7" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C7" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D7" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="8" t="s">
         <v>8</v>
+      </c>
+      <c r="F7" s="8"/>
+    </row>
+    <row r="8" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="8"/>
+    </row>
+    <row r="9" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="10"/>
+    </row>
+    <row r="12" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/documents/permissions.xlsx
+++ b/documents/permissions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Business/Documents/OpenClassRooms/R12-Repo/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8992D6EA-4789-8D4D-B644-BF5F04D594F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35DA70A5-5833-1747-843C-E8B65A46E609}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="32000" windowHeight="17540" xr2:uid="{49A6C758-DD7F-5C46-A7F1-3D64CF893183}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{49A6C758-DD7F-5C46-A7F1-3D64CF893183}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="57">
   <si>
     <t>View</t>
   </si>
@@ -36,15 +36,9 @@
     <t>endpoint</t>
   </si>
   <si>
-    <t>user_views</t>
-  </si>
-  <si>
     <t>LoginView</t>
   </si>
   <si>
-    <t>all</t>
-  </si>
-  <si>
     <t>AllowAny</t>
   </si>
   <si>
@@ -60,9 +54,6 @@
     <t>(IsAuthenticated, IsAdmin)</t>
   </si>
   <si>
-    <t>contact_views</t>
-  </si>
-  <si>
     <t>GlobalContactView</t>
   </si>
   <si>
@@ -72,15 +63,9 @@
     <t>endpoint permission</t>
   </si>
   <si>
-    <t>post</t>
-  </si>
-  <si>
     <t>ADMIN or SALES</t>
   </si>
   <si>
-    <t>get</t>
-  </si>
-  <si>
     <t>route</t>
   </si>
   <si>
@@ -108,12 +93,6 @@
     <t>contacts/&lt;int:contact_id&gt;/</t>
   </si>
   <si>
-    <t>put</t>
-  </si>
-  <si>
-    <t>delete</t>
-  </si>
-  <si>
     <t>SALES Contact or ADMIN</t>
   </si>
   <si>
@@ -133,13 +112,97 @@
   </si>
   <si>
     <t>Sales Contact or ADMIN</t>
+  </si>
+  <si>
+    <t>method</t>
+  </si>
+  <si>
+    <t>LOGIN</t>
+  </si>
+  <si>
+    <t>LOGOUT</t>
+  </si>
+  <si>
+    <t>CREATE USER</t>
+  </si>
+  <si>
+    <t>DELETE USER</t>
+  </si>
+  <si>
+    <t>GET ALL CONTACTS</t>
+  </si>
+  <si>
+    <t>CREATE CONTACT</t>
+  </si>
+  <si>
+    <t>GET CONTACT</t>
+  </si>
+  <si>
+    <t>UPDATE CONTACT</t>
+  </si>
+  <si>
+    <t>DELETE CONTACT</t>
+  </si>
+  <si>
+    <t>GET ALL CONTRACTS</t>
+  </si>
+  <si>
+    <t>CREATE CONTRACT</t>
+  </si>
+  <si>
+    <t>ContractView</t>
+  </si>
+  <si>
+    <t>GET CONTRACT</t>
+  </si>
+  <si>
+    <t>contacts/&lt;int:contact_id&gt;/contracts/&lt;int:contract_id&gt;/</t>
+  </si>
+  <si>
+    <t>POST</t>
+  </si>
+  <si>
+    <t>GET</t>
+  </si>
+  <si>
+    <t>DELETE</t>
+  </si>
+  <si>
+    <t>PUT</t>
+  </si>
+  <si>
+    <t>DELETE CONTRACT</t>
+  </si>
+  <si>
+    <t>events_views</t>
+  </si>
+  <si>
+    <t>contacts_views</t>
+  </si>
+  <si>
+    <t>users_views</t>
+  </si>
+  <si>
+    <t>GlobalEventView</t>
+  </si>
+  <si>
+    <t>GET ALL EVENTS</t>
+  </si>
+  <si>
+    <t>contacts/events/</t>
+  </si>
+  <si>
+    <t>CREATE EVNET</t>
+  </si>
+  <si>
+    <t>contacts/&lt;int:contact_id&gt;/events/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -153,8 +216,21 @@
       <name val="Courier"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Courier"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -179,6 +255,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE1FFE1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -192,7 +274,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -212,22 +294,34 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -238,6 +332,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFE1FFE1"/>
       <color rgb="FFE1F3FF"/>
       <color rgb="FFFFDCC2"/>
       <color rgb="FFFDDDD6"/>
@@ -551,25 +646,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{040CC14E-0E78-EC42-8860-007467D2C9CA}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
+      <selection pane="bottomLeft" activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" style="1"/>
-    <col min="4" max="4" width="44.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="10.83203125" style="1"/>
+    <col min="3" max="3" width="21.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="1"/>
+    <col min="5" max="5" width="47.33203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -580,219 +676,366 @@
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="6"/>
+    </row>
+    <row r="3" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="6"/>
+    </row>
+    <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="6"/>
+    </row>
+    <row r="5" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="7" t="s">
+      <c r="C5" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="6"/>
+    </row>
+    <row r="6" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="7"/>
+    </row>
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="6"/>
-    </row>
-    <row r="3" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="7" t="s">
+      <c r="C8" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="6"/>
-    </row>
-    <row r="4" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="7" t="s">
+      <c r="F8" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="7"/>
+    </row>
+    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="6"/>
-    </row>
-    <row r="5" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="7" t="s">
+    </row>
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="6"/>
-    </row>
-    <row r="6" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="9" t="s">
+    </row>
+    <row r="11" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="9" t="s">
+      <c r="B11" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="8"/>
+    </row>
+    <row r="12" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="8"/>
-    </row>
-    <row r="8" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="8" t="s">
+      <c r="B12" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="8"/>
-    </row>
-    <row r="9" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="8" t="s">
+      <c r="C12" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="8" t="s">
+      <c r="F12" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" s="10"/>
-    </row>
-    <row r="12" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>35</v>
+    </row>
+    <row r="13" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13" s="8"/>
+    </row>
+    <row r="14" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16" s="14"/>
+    </row>
+    <row r="17" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/documents/permissions.xlsx
+++ b/documents/permissions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Business/Documents/OpenClassRooms/R12-Repo/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35DA70A5-5833-1747-843C-E8B65A46E609}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EB722BA-89F8-BB42-BC0F-7052974BAFC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{49A6C758-DD7F-5C46-A7F1-3D64CF893183}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="62">
   <si>
     <t>View</t>
   </si>
@@ -51,9 +51,6 @@
     <t>SignupView</t>
   </si>
   <si>
-    <t>(IsAuthenticated, IsAdmin)</t>
-  </si>
-  <si>
     <t>GlobalContactView</t>
   </si>
   <si>
@@ -192,10 +189,28 @@
     <t>contacts/events/</t>
   </si>
   <si>
-    <t>CREATE EVNET</t>
-  </si>
-  <si>
     <t>contacts/&lt;int:contact_id&gt;/events/</t>
+  </si>
+  <si>
+    <t>EventView</t>
+  </si>
+  <si>
+    <t>GET EVENT</t>
+  </si>
+  <si>
+    <t>CREATE EVENT</t>
+  </si>
+  <si>
+    <t>UPDATE EVENT</t>
+  </si>
+  <si>
+    <t>DELETE EVENT</t>
+  </si>
+  <si>
+    <t>contacts/&lt;int:contact_id&gt;/events/&lt;int:event_id&gt;/</t>
+  </si>
+  <si>
+    <t>Sales Contact or Support Event Contact or ADMIN</t>
   </si>
 </sst>
 </file>
@@ -646,11 +661,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{040CC14E-0E78-EC42-8860-007467D2C9CA}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G18" sqref="G18"/>
+      <selection pane="bottomLeft" activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -660,8 +675,8 @@
     <col min="3" max="3" width="21.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.83203125" style="1"/>
     <col min="5" max="5" width="47.33203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="57.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
@@ -676,33 +691,33 @@
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>10</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>4</v>
@@ -711,19 +726,19 @@
     </row>
     <row r="3" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>6</v>
@@ -732,84 +747,84 @@
     </row>
     <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G4" s="6"/>
     </row>
     <row r="5" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G5" s="6"/>
     </row>
     <row r="6" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>6</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>6</v>
@@ -818,19 +833,19 @@
     </row>
     <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="11" t="s">
         <v>20</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>21</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>6</v>
@@ -839,65 +854,65 @@
     </row>
     <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E9" s="11" t="s">
+      <c r="F9" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B10" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>21</v>
-      </c>
       <c r="F10" s="7" t="s">
         <v>6</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="C11" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="12" t="s">
         <v>25</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>26</v>
       </c>
       <c r="F11" s="8" t="s">
         <v>6</v>
@@ -906,42 +921,42 @@
     </row>
     <row r="12" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>25</v>
-      </c>
       <c r="C12" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E12" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" s="8" t="s">
         <v>27</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B13" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="D13" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="12" t="s">
         <v>42</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>43</v>
       </c>
       <c r="F13" s="8" t="s">
         <v>6</v>
@@ -950,65 +965,65 @@
     </row>
     <row r="14" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F14" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F15" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B16" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="D16" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="15" t="s">
         <v>53</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>54</v>
       </c>
       <c r="F16" s="14" t="s">
         <v>6</v>
@@ -1017,25 +1032,92 @@
     </row>
     <row r="17" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C17" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="D17" s="14" t="s">
+      <c r="C18" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="E17" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="F17" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="G17" s="14" t="s">
-        <v>28</v>
+      <c r="E18" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="G18" s="14"/>
+    </row>
+    <row r="19" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
